--- a/time schedules/laurens.xlsx
+++ b/time schedules/laurens.xlsx
@@ -261,13 +261,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,12 +722,18 @@
         <f>C5 - B5</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="F5" s="10">
+        <v>42067</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.53125</v>
+      </c>
       <c r="I5" s="12">
         <f>H5 - G5</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="11"/>
@@ -759,11 +765,11 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C6" s="11">
-        <v>0.53125</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D6" s="12">
         <f>C6 - B6</f>
-        <v>0.13541666666666669</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
@@ -1105,7 +1111,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="15">
         <f>SUM(D5:D15)</f>
-        <v>0.17708333333333331</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>4</v>
@@ -1114,7 +1120,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="15">
         <f>SUM(I5:I15)</f>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>4</v>
@@ -1146,12 +1152,12 @@
     </row>
     <row r="24" spans="11:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="11:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="18">
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="16">
         <f>SUM(D16, I16, N16, S16, X16)</f>
         <v>0.17708333333333331</v>
       </c>
